--- a/Lab4CPU设计实验/控制信号表.xlsx
+++ b/Lab4CPU设计实验/控制信号表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>控制信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,13 +214,17 @@
   </si>
   <si>
     <t>ALUOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syscall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +299,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,20 +576,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -712,7 +716,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -750,7 +754,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -788,7 +792,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>101</v>
       </c>
@@ -832,7 +836,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>110</v>
       </c>
@@ -870,7 +874,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>111</v>
       </c>
@@ -910,7 +914,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1000</v>
       </c>
@@ -950,7 +954,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1001</v>
       </c>
@@ -988,7 +992,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -1026,7 +1030,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1011</v>
       </c>
@@ -1066,7 +1070,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1100</v>
       </c>
@@ -1080,13 +1084,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>38</v>
@@ -1144,7 +1148,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>39</v>
@@ -1202,7 +1206,7 @@
       </c>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -1276,7 +1280,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>42</v>
@@ -1308,7 +1312,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
@@ -1346,7 +1350,7 @@
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>43</v>
@@ -1388,7 +1392,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>44</v>
@@ -1424,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>10</v>
@@ -1460,7 +1464,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
@@ -1496,7 +1500,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -1532,7 +1536,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>26</v>
@@ -1568,7 +1572,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1604,8 +1608,10 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1629,13 +1635,15 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="Z27" s="2">
+        <v>1</v>
+      </c>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1665,7 +1673,7 @@
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
     </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1695,7 +1703,7 @@
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
     </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1725,7 +1733,7 @@
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
     </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1755,7 +1763,7 @@
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
     </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1785,7 +1793,7 @@
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
     </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1815,7 +1823,7 @@
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
     </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1845,7 +1853,7 @@
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
     </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1875,7 +1883,7 @@
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
     </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1905,7 +1913,7 @@
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1935,7 +1943,7 @@
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1965,7 +1973,7 @@
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
     </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1995,7 +2003,7 @@
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2025,7 +2033,7 @@
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2055,7 +2063,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2085,7 +2093,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2115,7 +2123,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2145,7 +2153,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2175,7 +2183,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2205,7 +2213,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2235,7 +2243,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2265,7 +2273,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2295,7 +2303,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2325,7 +2333,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2355,7 +2363,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2385,7 +2393,7 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
     </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2415,7 +2423,7 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
     </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2445,7 +2453,7 @@
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
     </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2475,7 +2483,7 @@
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2505,7 +2513,7 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
     </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2535,7 +2543,7 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
     </row>
-    <row r="70" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2565,7 +2573,7 @@
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2595,7 +2603,7 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2625,7 +2633,7 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2655,7 +2663,7 @@
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2685,7 +2693,7 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2715,7 +2723,7 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2745,7 +2753,7 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2775,7 +2783,7 @@
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2805,7 +2813,7 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2835,7 +2843,7 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2865,7 +2873,7 @@
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2895,7 +2903,7 @@
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2925,7 +2933,7 @@
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2955,7 +2963,7 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2985,7 +2993,7 @@
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3015,7 +3023,7 @@
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3045,7 +3053,7 @@
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3075,7 +3083,7 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3105,7 +3113,7 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3135,7 +3143,7 @@
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3165,7 +3173,7 @@
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3195,7 +3203,7 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3225,7 +3233,7 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3255,7 +3263,7 @@
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3285,7 +3293,7 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3315,7 +3323,7 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3345,7 +3353,7 @@
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3375,7 +3383,7 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>

--- a/Lab4CPU设计实验/控制信号表.xlsx
+++ b/Lab4CPU设计实验/控制信号表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +299,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,20 +576,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>101</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>110</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>111</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1000</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1001</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1011</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1100</v>
       </c>
@@ -1084,13 +1084,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>38</v>
@@ -1148,7 +1148,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>39</v>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -1280,7 +1280,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>42</v>
@@ -1312,7 +1312,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>43</v>
@@ -1392,7 +1392,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>44</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>10</v>
@@ -1464,7 +1464,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
@@ -1500,7 +1500,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -1536,7 +1536,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>26</v>
@@ -1572,7 +1572,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1608,7 +1608,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
@@ -1643,7 +1643,10 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="40" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1673,7 +1676,7 @@
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
     </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1703,7 +1706,7 @@
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
     </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1733,7 +1736,7 @@
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
     </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1763,7 +1766,7 @@
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
     </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1793,7 +1796,7 @@
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
     </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1823,7 +1826,7 @@
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
     </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1853,7 +1856,7 @@
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
     </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1883,7 +1886,7 @@
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
     </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1913,7 +1916,7 @@
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1943,7 +1946,7 @@
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1973,7 +1976,7 @@
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
     </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2003,7 +2006,7 @@
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2033,7 +2036,7 @@
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2063,7 +2066,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2093,7 +2096,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2123,7 +2126,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2153,7 +2156,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2183,7 +2186,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2213,7 +2216,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2243,7 +2246,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2273,7 +2276,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2303,7 +2306,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2333,7 +2336,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2363,7 +2366,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2393,7 +2396,7 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
     </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2423,7 +2426,7 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
     </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2453,7 +2456,7 @@
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
     </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2483,7 +2486,7 @@
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2513,7 +2516,7 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
     </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2543,7 +2546,7 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
     </row>
-    <row r="70" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2573,7 +2576,7 @@
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2603,7 +2606,7 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2633,7 +2636,7 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2663,7 +2666,7 @@
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2693,7 +2696,7 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2723,7 +2726,7 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2753,7 +2756,7 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2783,7 +2786,7 @@
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2813,7 +2816,7 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2843,7 +2846,7 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2873,7 +2876,7 @@
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2903,7 +2906,7 @@
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2933,7 +2936,7 @@
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2963,7 +2966,7 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2993,7 +2996,7 @@
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3023,7 +3026,7 @@
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3053,7 +3056,7 @@
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3083,7 +3086,7 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3113,7 +3116,7 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3143,7 +3146,7 @@
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3173,7 +3176,7 @@
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3203,7 +3206,7 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3233,7 +3236,7 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3263,7 +3266,7 @@
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3293,7 +3296,7 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3323,7 +3326,7 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3353,7 +3356,7 @@
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3383,7 +3386,7 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>

--- a/Lab4CPU设计实验/控制信号表.xlsx
+++ b/Lab4CPU设计实验/控制信号表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -820,8 +820,12 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -833,7 +837,9 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
       <c r="AD6" s="2"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">

--- a/Lab4CPU设计实验/控制信号表.xlsx
+++ b/Lab4CPU设计实验/控制信号表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5590" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>控制信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,13 +218,17 @@
   </si>
   <si>
     <t>Syscall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +303,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,20 +580,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -716,7 +720,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -754,7 +758,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -792,7 +796,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>101</v>
       </c>
@@ -842,7 +846,7 @@
       </c>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>110</v>
       </c>
@@ -880,7 +884,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>111</v>
       </c>
@@ -920,7 +924,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1000</v>
       </c>
@@ -960,7 +964,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1001</v>
       </c>
@@ -998,7 +1002,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -1036,7 +1040,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1011</v>
       </c>
@@ -1076,7 +1080,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1100</v>
       </c>
@@ -1090,13 +1094,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>38</v>
@@ -1154,7 +1158,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>39</v>
@@ -1212,7 +1216,7 @@
       </c>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -1286,7 +1290,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>42</v>
@@ -1318,7 +1322,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
@@ -1356,7 +1360,7 @@
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>43</v>
@@ -1398,7 +1402,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>44</v>
@@ -1434,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>10</v>
@@ -1470,7 +1474,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
@@ -1506,7 +1510,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -1542,7 +1546,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>26</v>
@@ -1578,7 +1582,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1614,7 +1618,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
@@ -1649,10 +1653,15 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1682,7 +1691,7 @@
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
     </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1712,7 +1721,7 @@
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
     </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1742,7 +1751,7 @@
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
     </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1772,7 +1781,7 @@
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
     </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1802,7 +1811,7 @@
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
     </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1832,7 +1841,7 @@
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
     </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1862,7 +1871,7 @@
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
     </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1892,7 +1901,7 @@
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
     </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1922,7 +1931,7 @@
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1952,7 +1961,7 @@
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1982,7 +1991,7 @@
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
     </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2012,7 +2021,7 @@
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2042,7 +2051,7 @@
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2072,7 +2081,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2102,7 +2111,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2132,7 +2141,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2162,7 +2171,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2192,7 +2201,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2222,7 +2231,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2252,7 +2261,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2282,7 +2291,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2312,7 +2321,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2342,7 +2351,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2372,7 +2381,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2402,7 +2411,7 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
     </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2432,7 +2441,7 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
     </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2462,7 +2471,7 @@
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
     </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2492,7 +2501,7 @@
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2522,7 +2531,7 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
     </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2552,7 +2561,7 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
     </row>
-    <row r="70" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2582,7 +2591,7 @@
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2612,7 +2621,7 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2642,7 +2651,7 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2672,7 +2681,7 @@
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2702,7 +2711,7 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2732,7 +2741,7 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2762,7 +2771,7 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2792,7 +2801,7 @@
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2822,7 +2831,7 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2852,7 +2861,7 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2882,7 +2891,7 @@
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2912,7 +2921,7 @@
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2942,7 +2951,7 @@
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2972,7 +2981,7 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3002,7 +3011,7 @@
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3032,7 +3041,7 @@
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3062,7 +3071,7 @@
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3092,7 +3101,7 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3122,7 +3131,7 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3152,7 +3161,7 @@
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3182,7 +3191,7 @@
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3212,7 +3221,7 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3242,7 +3251,7 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3272,7 +3281,7 @@
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3302,7 +3311,7 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3332,7 +3341,7 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3362,7 +3371,7 @@
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3392,7 +3401,7 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
